--- a/ecosysem/reactions/Excel/pHSpeciation.xlsx
+++ b/ecosysem/reactions/Excel/pHSpeciation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496A886-844A-4879-A41C-558772FF6B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DBF044-9CA7-4377-B0AE-33ABD583DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={AF2C2CC4-1D77-468C-93B3-A828358D05B9}</author>
+    <author>tc={70E04EEA-D044-4320-B23A-10BBDD44FF4E}</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{AF2C2CC4-1D77-468C-93B3-A828358D05B9}">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{70E04EEA-D044-4320-B23A-10BBDD44FF4E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,19 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Fully protonated</t>
-  </si>
-  <si>
-    <t>First deprotonation</t>
-  </si>
-  <si>
-    <t>Second deprotonation</t>
-  </si>
-  <si>
-    <t>Third deprotonation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>NH4</t>
   </si>
@@ -108,13 +96,43 @@
   </si>
   <si>
     <t>OH-</t>
+  </si>
+  <si>
+    <t>Compounds</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>NH3/NH4+ (First deP)</t>
+  </si>
+  <si>
+    <t>HNO2/NO2- (First deP)</t>
+  </si>
+  <si>
+    <t>HNO3/NO3- (First deP)</t>
+  </si>
+  <si>
+    <t>H2CO3/HCO3-/CO3-2 (First deP)</t>
+  </si>
+  <si>
+    <t>H2CO3/HCO3-/CO3-2 (Second deP)</t>
+  </si>
+  <si>
+    <t>H2SO4/HSO4-/SO4-2 (First deP)</t>
+  </si>
+  <si>
+    <t>H2SO4/HSO4-/SO4-2 (Second deP)</t>
+  </si>
+  <si>
+    <t>H2O/OH- (First deP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,12 +147,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -165,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,7 +521,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B5" dT="2024-08-14T04:37:50.04" personId="{76C5522A-A05E-468B-B599-288BA3596211}" id="{AF2C2CC4-1D77-468C-93B3-A828358D05B9}">
+  <threadedComment ref="A9" dT="2024-08-14T04:37:50.04" personId="{76C5522A-A05E-468B-B599-288BA3596211}" id="{70E04EEA-D044-4320-B23A-10BBDD44FF4E}">
     <text>CO2 = H2CO3</text>
   </threadedComment>
 </ThreadedComments>
@@ -514,114 +529,267 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9C521-EB9F-441A-AA7F-C1DFF6AEC60B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12.77734375" customWidth="1"/>
+    <col min="5" max="8" width="19.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-1</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ecosysem/reactions/Excel/pHSpeciation.xlsx
+++ b/ecosysem/reactions/Excel/pHSpeciation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DBF044-9CA7-4377-B0AE-33ABD583DE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BE5166-C474-471B-ACC7-8C58366697EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
@@ -56,9 +56,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>NH4</t>
-  </si>
-  <si>
     <t>NH3</t>
   </si>
   <si>
@@ -113,12 +110,6 @@
     <t>HNO3/NO3- (First deP)</t>
   </si>
   <si>
-    <t>H2CO3/HCO3-/CO3-2 (First deP)</t>
-  </si>
-  <si>
-    <t>H2CO3/HCO3-/CO3-2 (Second deP)</t>
-  </si>
-  <si>
     <t>H2SO4/HSO4-/SO4-2 (First deP)</t>
   </si>
   <si>
@@ -126,6 +117,15 @@
   </si>
   <si>
     <t>H2O/OH- (First deP)</t>
+  </si>
+  <si>
+    <t>NH4+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2CO3/HCO3-/CO3-2 (First deP) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2CO3/HCO3-/CO3-2 (Second deP) </t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,36 +545,36 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <v>-1</v>
@@ -618,7 +618,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
@@ -647,7 +647,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
@@ -661,7 +661,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="3">
         <v>-1</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -689,7 +689,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -704,7 +704,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -717,7 +717,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -731,7 +731,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -748,7 +748,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -763,7 +763,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -778,7 +778,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>

--- a/ecosysem/reactions/Excel/pHSpeciation.xlsx
+++ b/ecosysem/reactions/Excel/pHSpeciation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BE5166-C474-471B-ACC7-8C58366697EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4021F96-2D42-49CD-A759-574626F62368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <author>tc={70E04EEA-D044-4320-B23A-10BBDD44FF4E}</author>
   </authors>
   <commentList>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{70E04EEA-D044-4320-B23A-10BBDD44FF4E}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{70E04EEA-D044-4320-B23A-10BBDD44FF4E}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>NH3</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t xml:space="preserve">H2CO3/HCO3-/CO3-2 (Second deP) </t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>HS-</t>
+  </si>
+  <si>
+    <t>S-2</t>
+  </si>
+  <si>
+    <t>H2S/HS-/S-2 (First deP)</t>
+  </si>
+  <si>
+    <t>H2S/HS-/S-2 (Second deP)</t>
   </si>
 </sst>
 </file>
@@ -169,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -180,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,7 +539,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A9" dT="2024-08-14T04:37:50.04" personId="{76C5522A-A05E-468B-B599-288BA3596211}" id="{70E04EEA-D044-4320-B23A-10BBDD44FF4E}">
+  <threadedComment ref="A11" dT="2024-08-14T04:37:50.04" personId="{76C5522A-A05E-468B-B599-288BA3596211}" id="{70E04EEA-D044-4320-B23A-10BBDD44FF4E}">
     <text>CO2 = H2CO3</text>
   </threadedComment>
 </ThreadedComments>
@@ -529,50 +547,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9C521-EB9F-441A-AA7F-C1DFF6AEC60B}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="12.77734375" customWidth="1"/>
-    <col min="5" max="8" width="19.21875" customWidth="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="9" width="19.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -600,140 +626,145 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="3">
         <v>-1</v>
       </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="3">
         <v>1</v>
       </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="4"/>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
       <c r="G12" s="3">
         <v>-1</v>
       </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="4"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -741,46 +772,43 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <v>1</v>
-      </c>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="4"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
       <c r="I15" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="4"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -791,6 +819,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/ecosysem/reactions/Excel/pHSpeciation.xlsx
+++ b/ecosysem/reactions/Excel/pHSpeciation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4021F96-2D42-49CD-A759-574626F62368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773C575-2D9D-4199-BBDF-EACE22C6315F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>NH3</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>H2S/HS-/S-2 (Second deP)</t>
+  </si>
+  <si>
+    <t>SO3-2</t>
+  </si>
+  <si>
+    <t>HSO3-</t>
+  </si>
+  <si>
+    <t>H2SO3/HSO3-/SO3-2 (Second deP)</t>
+  </si>
+  <si>
+    <t>H2SO3/HSO3-/SO3-2 (First deP)</t>
+  </si>
+  <si>
+    <t>H2SO3</t>
   </si>
 </sst>
 </file>
@@ -547,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9C521-EB9F-441A-AA7F-C1DFF6AEC60B}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,9 +576,11 @@
     <col min="6" max="9" width="19.21875" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,8 +614,14 @@
       <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -632,8 +655,14 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -641,7 +670,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -649,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -666,7 +695,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -683,7 +712,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -699,7 +728,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -715,7 +744,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -724,7 +753,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -733,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -745,7 +774,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -760,7 +789,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -773,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -787,7 +816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -804,7 +833,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -819,7 +848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -835,7 +864,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -854,13 +883,40 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="4"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="3">
         <v>1</v>
       </c>
     </row>

--- a/ecosysem/reactions/Excel/pHSpeciation.xlsx
+++ b/ecosysem/reactions/Excel/pHSpeciation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773C575-2D9D-4199-BBDF-EACE22C6315F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E600C06-3A54-4DDB-8536-BD355E62F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
+    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,7 +565,10 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/ecosysem/reactions/Excel/pHSpeciation.xlsx
+++ b/ecosysem/reactions/Excel/pHSpeciation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2424069M\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emartinez\Documents\GitHub\EcoSysEM\ecosysem\reactions\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E600C06-3A54-4DDB-8536-BD355E62F08E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9901E2CF-A80B-4E53-98D6-ACF7C0D0AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
+    <workbookView xWindow="-4044" yWindow="-17388" windowWidth="30936" windowHeight="16776" xr2:uid="{CE2D5BDF-8686-4A3C-889C-2246BF6977DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>NH3</t>
   </si>
@@ -156,6 +156,33 @@
   </si>
   <si>
     <t>H2SO3</t>
+  </si>
+  <si>
+    <t>HCOOH/HCOO- (First deP)</t>
+  </si>
+  <si>
+    <t>HCOOH</t>
+  </si>
+  <si>
+    <t>HCOO-</t>
+  </si>
+  <si>
+    <t>CH3COOH/CH3COO- (First deP)</t>
+  </si>
+  <si>
+    <t>CH3COOH</t>
+  </si>
+  <si>
+    <t>CH3COO-</t>
+  </si>
+  <si>
+    <t>NH2CH2COOH/NH2CH2COO- (First deP)</t>
+  </si>
+  <si>
+    <t>NH2CH2COOH</t>
+  </si>
+  <si>
+    <t>NH2CH2COO-</t>
   </si>
 </sst>
 </file>
@@ -562,18 +589,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC9C521-EB9F-441A-AA7F-C1DFF6AEC60B}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="5" width="12.77734375" customWidth="1"/>
     <col min="6" max="9" width="19.21875" customWidth="1"/>
@@ -581,9 +608,12 @@
     <col min="11" max="11" width="13.44140625" customWidth="1"/>
     <col min="12" max="12" width="18.77734375" customWidth="1"/>
     <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" customWidth="1"/>
+    <col min="15" max="15" width="18.33203125" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -617,14 +647,23 @@
       <c r="K1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -664,8 +703,17 @@
       <c r="M2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -673,7 +721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -681,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -698,7 +746,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -715,7 +763,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
@@ -731,7 +779,7 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -747,7 +795,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -756,7 +804,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -765,7 +813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -777,7 +825,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -792,7 +840,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -805,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -819,7 +867,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
@@ -836,7 +884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
@@ -851,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
@@ -867,7 +915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
@@ -886,7 +934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>26</v>
       </c>
@@ -896,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -904,7 +952,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
@@ -915,11 +963,59 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
       <c r="M22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P28" s="3">
         <v>1</v>
       </c>
     </row>
